--- a/PageObjectModel/data/PalmOilMillOutgoingDOAddFFBQuality.xlsx
+++ b/PageObjectModel/data/PalmOilMillOutgoingDOAddFFBQuality.xlsx
@@ -46,7 +46,7 @@
     <t>passwordgmas123</t>
   </si>
   <si>
-    <t>DO-org-021-20200801</t>
+    <t>DO-org</t>
   </si>
   <si>
     <t>Crude Palm Oil</t>
@@ -98,8 +98,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,62 +152,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,30 +214,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,13 +242,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,7 +320,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,25 +332,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,127 +422,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,6 +447,32 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,50 +516,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -548,10 +530,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -569,130 +569,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1028,14 +1028,14 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="16.5555555555556" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.5555555555556" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.55555555555556" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.5555555555556" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.2222222222222" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.6666666666667" style="1" customWidth="1"/>
